--- a/medicine/Pharmacie/Cobimétinib/Cobimétinib.xlsx
+++ b/medicine/Pharmacie/Cobimétinib/Cobimétinib.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cobim%C3%A9tinib</t>
+          <t>Cobimétinib</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le cobimétinib, est une molécule inhibitrice du MEK et utilisé comme médicament contre certains cancers. Il est vendu entre autres sous la marque Cotellic[1].
+Le cobimétinib, est une molécule inhibitrice du MEK et utilisé comme médicament contre certains cancers. Il est vendu entre autres sous la marque Cotellic.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cobim%C3%A9tinib</t>
+          <t>Cobimétinib</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Usage médical</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un médicament utilisé pour traiter le mélanome[1]. Plus précisément, il est utilisé pour les maladies avancées avec la mutation BRAF V600E ou V600K[1]. Il est utilisé avec le vémurafénib[1]. Il se prend par voie orale[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un médicament utilisé pour traiter le mélanome. Plus précisément, il est utilisé pour les maladies avancées avec la mutation BRAF V600E ou V600K. Il est utilisé avec le vémurafénib. Il se prend par voie orale.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cobim%C3%A9tinib</t>
+          <t>Cobimétinib</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Effets secondaires</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les effets secondaires courants comprennent la diarrhée, les éruptions cutanées, les nausées, la fièvre, les coups de soleil, les problèmes hépatiques ou les lésions musculaires[3]. D'autres effets secondaires peuvent inclure des saignements, des lésions cardiaques et une occlusion de la veine rétinienne[1]. L'utilisation pendant la grossesse peut nuire au bébé[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les effets secondaires courants comprennent la diarrhée, les éruptions cutanées, les nausées, la fièvre, les coups de soleil, les problèmes hépatiques ou les lésions musculaires. D'autres effets secondaires peuvent inclure des saignements, des lésions cardiaques et une occlusion de la veine rétinienne. L'utilisation pendant la grossesse peut nuire au bébé.
 </t>
         </is>
       </c>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cobim%C3%A9tinib</t>
+          <t>Cobimétinib</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,9 +590,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cobimétinib a été approuvé pour un usage médical aux États-Unis et en Europe en 2015[1],[3]. Au Royaume-Uni, un traitement de 4 semaines coûte au NHS environ 4 275 livre sterling à partir de 2021[4]. Ce montant aux États-Unis est d'environ 7 300 dollars américain[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cobimétinib a été approuvé pour un usage médical aux États-Unis et en Europe en 2015,. Au Royaume-Uni, un traitement de 4 semaines coûte au NHS environ 4 275 livre sterling à partir de 2021. Ce montant aux États-Unis est d'environ 7 300 dollars américain.
 </t>
         </is>
       </c>
